--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa237\OneDrive\바탕 화면\카풀 UGRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa237\OneDrive\바탕 화면\카풀 UGRP\자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reportedid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피신고자 user 식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +415,26 @@
   </si>
   <si>
     <t>/login/report/create/?id=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확정 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscomplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리했는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accusedid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +755,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1039,7 +1064,7 @@
     <col min="9" max="9" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1080,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1079,7 +1104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1119,7 +1144,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1165,7 +1190,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1204,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1201,7 +1226,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -1225,7 +1250,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1239,7 +1264,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1262,8 +1287,11 @@
       <c r="I11" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J11" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1288,8 +1316,11 @@
       <c r="I12" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J12" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>48</v>
@@ -1301,7 +1332,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>49</v>
@@ -1317,18 +1348,18 @@
         <v>89</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>53</v>
@@ -1343,26 +1374,26 @@
         <v>90</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1553,7 +1584,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa237\OneDrive\바탕 화면\카풀 UGRP\자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75732D14-2439-45E6-8B52-5E44D064A5D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8412"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,42 +83,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cartype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출발지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>depplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도착지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arrplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출발 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deptime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도착 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arrtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,14 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>curheads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totheads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 짐 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,26 +115,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>curcarriers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totcarriers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>확정 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isconfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/roomlist?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roominfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roomuserinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,50 +263,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roomid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roomid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채팅방 식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>말한 사람의 user 식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채팅 보낸 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채팅 보낸 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chatlog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>schema 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,22 +291,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reportnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 계정 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isadmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reporterid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신고자 user 식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,26 +331,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>confirmtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscomplete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>처리했는지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accusedid</t>
+    <t>car_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_headcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_headcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_carrier_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_carrier_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat_send_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isComplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatlogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roominfos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomuserinfos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1045,34 +1038,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" customWidth="1"/>
-    <col min="2" max="2" width="64.8984375" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
+    <col min="2" max="2" width="64.875" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" customWidth="1"/>
-    <col min="7" max="7" width="23.69921875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
     <col min="8" max="8" width="29.5" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -1080,31 +1073,31 @@
       <c r="H1" s="7"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,25 +1105,25 @@
         <v>8</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +1137,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1153,44 +1146,44 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="9" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1204,55 +1197,55 @@
       <c r="H7" s="1"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="9" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -1264,66 +1257,66 @@
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
@@ -1332,68 +1325,68 @@
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="9" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I14" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1410,7 +1403,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1426,9 +1419,9 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B19" s="17"/>
       <c r="D19" s="1"/>
@@ -1446,7 +1439,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>12</v>
       </c>
@@ -1468,12 +1461,12 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1490,12 +1483,12 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1512,84 +1505,84 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="B31" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunchan\Desktop\POAPPER carpool\carpool_backend\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75732D14-2439-45E6-8B52-5E44D064A5D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,26 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인된 사람이 속해있는 채팅방의 목록과 정보를 출력해 줌.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인된 사람이 새로운 채팅방을 만들고, 그 채팅방의 정보를 출력해 줌.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/roomlist/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/roomlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전체 채팅방의 목록과 정보를 출력해 줌.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,62 +98,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/roomlist?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방 정보 변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인된 유저가 query의 방 번호에 해당하는 채팅방에 들어감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login/roomlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login/roomlist/entry/?room=""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login/roomlist/exit/?room=""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 안되어 있으면 무조건 root에 있게 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출발지, 도착지, 출발 시간, 도착 시간에 해당하는 채팅방 목록을 리턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/roomlist/update/?room=""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/roomlist/delete/?room=""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room에 해당하는 방을 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room에 해당하는 채팅방의 정보를 업데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인된 유저가 query의 방 번호에 해당하는 채팅방에서 나감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/login에서는 로그인된 사람이 누군지에 대한 session 값이 필요함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,30 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/login/report/read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login/report/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin인 경우에만 신고 정보를 읽을 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin인 경우에만 신고 정보를 삭제할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 신고를 만드는 경우 id에 해당하는 사람을 신고한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login/report/create/?id=""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>확정 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,13 +335,117 @@
   </si>
   <si>
     <t>reportID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /roomlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /roomlist?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query에 출발지, 도착지, 출발 시간, 도착 시간을 입력하여 이에 해당하는 채팅방 목록을 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /roomlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 출발지, 도착지, 출발 시간, 도착 시간을 입력하여 이에 해당하는 채팅방 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT /roomlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 갱신하고자 하는 room에 접근하여 정보를 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE /roomlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 room id를 넘겨주며, 해당하는 방을 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /roomlist/userid?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 id의 유저가 속해있는 방 목록 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /roomlist/userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 room id, user id를 넘겨주어 해당 room에 user 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE /roomlist/userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 room id, user id를 넘겨주어 해당 room에 user 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login된 상황의 최상위 URL (로그인된 정보를 가져올때 사용되는 URL이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SSO팀에서 로그인 방식이 정해진 다음에 구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 신고자, 대상자, 신고내용 등을 담아둔 신고를 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 목록을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /report ?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query에 id를 입력하여 해당 신고의 내용을 출력한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE /report ?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*중요* 모든 명령들은 사용될 때 세션값 또는 이외 사용자의 권한을 증명할 값을 같이 넘겨받아, 사용자의 권한에 맞게 제한되어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1038,17 +1049,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.625" customWidth="1"/>
-    <col min="2" max="2" width="64.875" customWidth="1"/>
+    <col min="2" max="2" width="109.375" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
@@ -1062,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -1074,61 +1085,59 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
@@ -1138,57 +1147,51 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="9" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
@@ -1199,53 +1202,47 @@
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="9" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -1259,64 +1256,66 @@
     </row>
     <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="9" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="G12" s="11" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
@@ -1326,67 +1325,69 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="9" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>72</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1403,7 +1404,8 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1419,11 +1421,8 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="17"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1439,12 +1438,12 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>11</v>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1461,12 +1460,12 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1485,10 +1484,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1505,86 +1504,343 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
+      <c r="B40" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunchan\Desktop\POAPPER carpool\carpool_backend\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2C227A-5B9B-4DE6-B4B6-734E79F87318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +142,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>schema 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +178,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>schema 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>user의 식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +190,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>schema 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>채팅방 식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +210,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>schema 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,6 +414,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http request body에 신고자, 대상자, 신고내용 등을 담아둔 신고를 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET /report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,40 +439,13 @@
   </si>
   <si>
     <t>*중요* 모든 명령들은 사용될 때 세션값 또는 이외 사용자의 권한을 증명할 값을 같이 넘겨받아, 사용자의 권한에 맞게 제한되어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberPW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table 이름</t>
-  </si>
-  <si>
-    <t>SSO팀 완성까지 쓸 임시 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시 PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* memberID/memberPW 값은 통합 로그인이 완성되기 전까지 임시로 사용한다. 통합 로그인이 완성되면 그때 session id를 받아오든 해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http request body에 신고자, 대상자, 신고내용 등을 담아둔 신고를 생성하며, 단말에서 chatlog table에 채팅 내용을 넣어준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -498,30 +494,281 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,473 +1049,798 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="109.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
+    <col min="2" max="2" width="109.375" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -358,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http request body에 출발지, 도착지, 출발 시간, 도착 시간을 입력하여 이에 해당하는 채팅방 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PUT /roomlist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,6 +435,10 @@
   </si>
   <si>
     <t>*중요* 모든 명령들은 사용될 때 세션값 또는 이외 사용자의 권한을 증명할 값을 같이 넘겨받아, 사용자의 권한에 맞게 제한되어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 차종, 출발지, 도착지, 출발 시간, 도착 시간을 입력하여 이에 해당하는 채팅방 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1087,7 @@
     <row r="2" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="9" t="s">
@@ -1137,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
@@ -1191,7 +1191,7 @@
     <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
@@ -1286,7 +1286,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>25</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="9" t="s">
@@ -1350,10 +1350,10 @@
     </row>
     <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>25</v>
@@ -1376,18 +1376,18 @@
     </row>
     <row r="16" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1506,10 +1506,10 @@
     </row>
     <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2C227A-5B9B-4DE6-B4B6-734E79F87318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290350D1-186C-4950-A368-FA4767B136BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>방 정보 변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -803,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,39 +824,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -868,31 +864,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -900,49 +896,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -953,38 +949,38 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -992,130 +988,130 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1129,34 +1125,34 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1178,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1186,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1194,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1202,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1210,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1218,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1226,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1234,7 +1230,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1242,31 +1238,23 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>58</v>
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290350D1-186C-4950-A368-FA4767B136BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F65D2E1-B6E6-4ACD-AD45-3069BE576F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roomuserinfos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>roomID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,6 +435,10 @@
   </si>
   <si>
     <t>http request body에 신고자, 대상자, 신고내용 등을 담아둔 신고를 생성하며, 단말에서 chatlog table에 채팅 내용을 넣어준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users_and_rooms_infos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -830,12 +830,12 @@
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -853,10 +853,10 @@
         <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -864,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
@@ -885,10 +885,10 @@
         <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -927,7 +927,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>29</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -949,16 +949,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -988,19 +988,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>61</v>
@@ -1014,16 +1014,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>37</v>
@@ -1043,18 +1043,18 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>65</v>
@@ -1063,27 +1063,27 @@
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>41</v>
@@ -1100,18 +1100,18 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1125,34 +1125,34 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F65D2E1-B6E6-4ACD-AD45-3069BE576F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD0767-8BDE-41DA-89F9-DDF574C080D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,26 @@
   </si>
   <si>
     <t>users_and_rooms_infos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user와 room의 매칭 table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room의 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user의 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고된 chat들의 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고에 대한 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -819,7 +839,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -833,7 +853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
@@ -858,8 +878,11 @@
       <c r="K2" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -891,7 +914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -899,7 +922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -918,8 +941,11 @@
       <c r="I5" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -936,12 +962,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -960,8 +986,11 @@
       <c r="H8" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
@@ -978,7 +1007,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -986,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -1011,8 +1040,11 @@
       <c r="J11" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
@@ -1041,7 +1073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1049,7 +1081,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -1071,8 +1103,11 @@
       <c r="I14" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -1098,7 +1133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD0767-8BDE-41DA-89F9-DDF574C080D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98D7D76-948F-4B1F-9FC3-1D7E57B39D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,14 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>말한 사람의 user 식별자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅 보낸 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채팅 보낸 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,18 +263,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chat_send_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chat_content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isComplete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chatlogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accuseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reportID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,26 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET /report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 목록을 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /report ?id=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Query에 id를 입력하여 해당 신고의 내용을 출력한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE /report ?id=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*중요* 모든 명령들은 사용될 때 세션값 또는 이외 사용자의 권한을 증명할 값을 같이 넘겨받아, 사용자의 권한에 맞게 제한되어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,6 +419,90 @@
   </si>
   <si>
     <t>신고에 대한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /report?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE /report?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /report?page=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isWorkDone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* chatlog는 신고에 대한 채팅을 담는 table인데, 65535자라는 긴 텍스트(한글문서로 약 50p)에 (발화자, 보낸 시간, 내용)을 한 번에 넣는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page부터 20개에 해당하는 신고 목록을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuseUserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query에 id를 입력하여 report table의 id에 해당 신고의 내용을 처리했다고 바꾼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query에 id를 입력하여 report table의 id에 해당하는 신고의 채팅을 포함한 세부 내용을 출력한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 신고에 대한 처분을 아직 결정하지 않아서 users table의 report_num만 1 더해주는걸로 만들었으며, 신고 데이터에 대한 삭제 기능도 보류했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT /report?id=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 신고의 정보를 볼 수 있는 것은 관리자 계정에 한정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query에 id를 입력하여 report table의 id에 해당하는 (신고의 내용 + 채팅 기록)을 삭제한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -839,7 +883,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -850,12 +894,12 @@
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -864,36 +908,36 @@
         <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
@@ -905,47 +949,47 @@
         <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -953,7 +997,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>29</v>
@@ -962,12 +1006,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -975,27 +1019,27 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
@@ -1007,152 +1051,168 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1160,35 +1220,46 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>94</v>
+      <c r="A23" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -1209,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1217,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1225,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1233,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1241,7 +1312,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1249,7 +1320,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1257,7 +1328,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1265,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1273,7 +1344,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1281,15 +1352,15 @@
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98D7D76-948F-4B1F-9FC3-1D7E57B39D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B223F33-3B41-44D2-BD82-8CBF34B619A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,42 +319,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http request body에 갱신하고자 하는 room에 접근하여 정보를 업데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE /roomlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http request body에 room id를 넘겨주며, 해당하는 방을 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /roomlist/userid?id=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력된 id의 유저가 속해있는 방 목록 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST /roomlist/userid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http request body에 room id, user id를 넘겨주어 해당 room에 user 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE /roomlist/userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http request body에 room id, user id를 넘겨주어 해당 room에 user 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login된 상황의 최상위 URL (로그인된 정보를 가져올때 사용되는 URL이다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,6 +471,38 @@
   </si>
   <si>
     <t>Query에 id를 입력하여 report table의 id에 해당하는 (신고의 내용 + 채팅 기록)을 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE /roomlist/userid/:userID/:roomID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE /roomlist/:roomID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /roomlist/userid/:userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url에 roomID 넘겨주며, roomID 해당하는 방과 해당 방에 들어있는 사람들을 users_and_rooms_infos에서 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url에 userID를 넘겨주며, userID에 해당하는 유저가 속해있는 방 목록 출력. Admin일 때만 다른 유저가 속해있는 방 목록을 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 roomID, userID를 넘겨주어 roomID에 해당하는 room에 userID에 해당하는 user를 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request parameter에 room id, user id를 넘겨주어 해당 room에 user 삭제. userID에 해당하지 않는 user가 접근하는 경우 접근 권한 오류.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 갱신하고자 하는 정보와 갱신하고자 하는 roomID를 입력해 roomID에 해당하는 방 정보를 업데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -894,12 +894,12 @@
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -917,13 +917,13 @@
         <v>58</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -937,7 +937,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
@@ -952,10 +952,10 @@
         <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -963,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>29</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
@@ -1031,7 +1031,7 @@
         <v>63</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>65</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1094,13 +1094,13 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>38</v>
@@ -1111,15 +1111,15 @@
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>61</v>
@@ -1128,39 +1128,39 @@
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>39</v>
@@ -1175,43 +1175,43 @@
         <v>37</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1220,42 +1220,42 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B223F33-3B41-44D2-BD82-8CBF34B619A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721EAF27-FD97-41A2-84FE-15AE2CF217A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="5040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>page부터 20개에 해당하는 신고 목록을 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reportTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,14 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Query에 id를 입력하여 report table의 id에 해당 신고의 내용을 처리했다고 바꾼다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Query에 id를 입력하여 report table의 id에 해당하는 신고의 채팅을 포함한 세부 내용을 출력한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 신고에 대한 처분을 아직 결정하지 않아서 users table의 report_num만 1 더해주는걸로 만들었으며, 신고 데이터에 대한 삭제 기능도 보류했다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,26 +458,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Query에 id를 입력하여 report table의 id에 해당하는 (신고의 내용 + 채팅 기록)을 삭제한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DELETE /roomlist/userid/:userID/:roomID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DELETE /roomlist/:roomID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /roomlist/userid/:userID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url에 roomID 넘겨주며, roomID 해당하는 방과 해당 방에 들어있는 사람들을 users_and_rooms_infos에서 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url에 userID를 넘겨주며, userID에 해당하는 유저가 속해있는 방 목록 출력. Admin일 때만 다른 유저가 속해있는 방 목록을 조회할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,6 +475,34 @@
   </si>
   <si>
     <t>http request body에 갱신하고자 하는 정보와 갱신하고자 하는 roomID를 입력해 roomID에 해당하는 방 정보를 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url에 query로 roomID 넘겨주며, roomID 해당하는 방과 해당 방에 들어있는 사람들을 users_and_rooms_infos에서 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE /roomlist?roomID=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /roomlist/userid?userID=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url의 query에 page를 주고, page부터 20개에 해당하는 신고 목록을 출력한다. Page는 1부터 시작한다. Admin만 접근 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url의 Query에 id를 입력하여 report table의 id에 해당하는 신고의 채팅을 포함한 세부 내용을 출력한다.  Admin만 접근 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url의 Query에 id를 입력하여 report table의 id에 해당 신고의 내용을 처리했다고 바꾼다.  Admin만 접근 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url의 Query에 id를 입력하여 report table의 id에 해당하는 (신고의 내용 + 채팅 기록)을 삭제한다.  Admin만 접근 가능.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1070,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>65</v>
@@ -1097,7 +1097,7 @@
         <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>97</v>
@@ -1111,15 +1111,15 @@
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>61</v>
@@ -1128,10 +1128,10 @@
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
@@ -1143,7 +1143,7 @@
         <v>96</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>90</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
@@ -1181,7 +1181,7 @@
         <v>45</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1189,18 +1189,18 @@
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1231,7 +1231,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1239,15 +1239,15 @@
         <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1255,7 +1255,7 @@
         <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721EAF27-FD97-41A2-84FE-15AE2CF217A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74216A04-EAC8-4C39-8992-566B2E53EBF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="5040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SSO팀에서 access token과 함께 session값을 주면 우리 DB에 사용자 정보 주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 채팅방의 목록과 정보를 출력해 줌.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/login에서는 로그인된 사람이 누군지에 대한 session 값이 필요함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트에서 session값을 server로 넘겨 주어야 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,34 +123,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식별자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방 정보 변수에 있는 변수들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식별자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user의 식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>식별자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,18 +263,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Query에 출발지, 도착지, 출발 시간, 도착 시간을 입력하여 이에 해당하는 채팅방 목록을 리턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST /roomlist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http request body에 출발지, 도착지, 출발 시간, 도착 시간을 입력하여 이에 해당하는 채팅방 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PUT /roomlist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,18 +279,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(SSO팀에서 로그인 방식이 정해진 다음에 구현)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST /report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*중요* 모든 명령들은 사용될 때 세션값 또는 이외 사용자의 권한을 증명할 값을 같이 넘겨받아, 사용자의 권한에 맞게 제한되어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>memberID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http request body에 신고자, 대상자, 신고내용 등을 담아둔 신고를 생성하며, 단말에서 chatlog table에 채팅 내용을 넣어준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>users_and_rooms_infos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,14 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식별자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 신고에 대한 처분을 아직 결정하지 않아서 users table의 report_num만 1 더해주는걸로 만들었으며, 신고 데이터에 대한 삭제 기능도 보류했다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,34 +386,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 신고의 정보를 볼 수 있는 것은 관리자 계정에 한정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DELETE /roomlist/userid/:userID/:roomID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url에 userID를 넘겨주며, userID에 해당하는 유저가 속해있는 방 목록 출력. Admin일 때만 다른 유저가 속해있는 방 목록을 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http request body에 roomID, userID를 넘겨주어 roomID에 해당하는 room에 userID에 해당하는 user를 추가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http request parameter에 room id, user id를 넘겨주어 해당 room에 user 삭제. userID에 해당하지 않는 user가 접근하는 경우 접근 권한 오류.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http request body에 갱신하고자 하는 정보와 갱신하고자 하는 roomID를 입력해 roomID에 해당하는 방 정보를 업데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url에 query로 roomID 넘겨주며, roomID 해당하는 방과 해당 방에 들어있는 사람들을 users_and_rooms_infos에서 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DELETE /roomlist?roomID=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,19 +398,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url의 query에 page를 주고, page부터 20개에 해당하는 신고 목록을 출력한다. Page는 1부터 시작한다. Admin만 접근 가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url의 Query에 id를 입력하여 report table의 id에 해당하는 신고의 채팅을 포함한 세부 내용을 출력한다.  Admin만 접근 가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url의 Query에 id를 입력하여 report table의 id에 해당 신고의 내용을 처리했다고 바꾼다.  Admin만 접근 가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url의 Query에 id를 입력하여 report table의 id에 해당하는 (신고의 내용 + 채팅 기록)을 삭제한다.  Admin만 접근 가능.</t>
+    <t>*중요* 모든 명령들은 사용될 때 세션값 또는 이외 사용자의 권한을 증명할 값(req.users.isAdmin)을 같이 넘겨받아, 사용자의 권한에 맞게 제한되어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 정보 변수'에 있는 변수들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 '방 정보 변수' 중 갱신하고자 하는 변수의 값과 갱신하고자 하는 roomID를 넘겨주어, roomID에 해당하는 방 정보를 업데이트한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 '방 정보 변수'에 해당하는 변수들을 넘겨주어 해당 정보를 가지는 room을 roominfos table에 생성한다. '방 정보 변수'는 바로 밑의 표 참조.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url에 query로 roomID를 넘겨주며, roomID에 해당하는 방을 roominfos table에서 삭제하고, roomID에 해당하는 방에 들어있는 사람들을 모두 뺀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 roomID, userID를 넘겨주어 roomID에 해당하는 방에 userID에 해당하는 user를 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request parameter에 room id, user id를 넘겨주어 해당 방에서 user를 삭제한다. Admin에 해당하는 user만 다른 user가 속해있는 방에서 user를 뺄 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 reportUserID, accuseUserID, roomID, reportReason, reportTime, chatlog를 넘겨주어(무슨 정보인지는 DB-reports 참조) 신고를 생성하며, 단말에서 chatlog table에 채팅 내용을 넣어준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login에서는 로그인된 사람이 누군지에 대한 session 값이 필요하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO팀에서 access token과 함께 session값을 주면 DB에 사용자 정보를 추가한다. (SSO팀에서 로그인 방식이 정해진 다음에 구현한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시로 만든 login/logout 기능이다. 현재는 로그인하면 DB에서 해당 user의 session 값을 가져온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">url의 query에 id를 입력하여 report table의 id에 해당하는 신고의 내용을 처리했다고 바꾼다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">url의 query에 id를 입력하여 report table의 id에 해당하는 (신고의 내용 + 채팅 기록)을 삭제한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 신고의 정보를 볼 수 있는 것은 관리자 계정에 한정한다. 예제로는 아이디는 poapper, 비밀번호는 poapper를 admin로 설정했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url에 query로 depart_place, arrive_place, depart_time, arrive_time을 넘겨 이에 해당하는 채팅방 목록을 json형식으로 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 채팅방의 목록과 정보를 json 형식으로 출력해 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url에 query로 userID를 넘겨주며, userID에 해당하는 user가 속해있는 방의 정보를 json 형식으로 출력한다. Admin에 해당하는 user만 때만 다른 user가 속해있는 방 목록을 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">url의 query에 page를 입력하여, page부터 20개에 해당하는 신고 목록을 json 형식으로 출력한다. Page는 1부터 시작한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">url의 query에 id를 입력하여 report table의 id에 해당하는 신고의 채팅을 포함한 세부 내용을 json 형식으로 출력한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,12 +513,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -558,13 +538,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,13 +718,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,506 +1085,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="109.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="130.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12"/>
+      <c r="D1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="9"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="D8" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E18" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>107</v>
-      </c>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
+    <row r="40" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74216A04-EAC8-4C39-8992-566B2E53EBF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,14 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http request body에 roomID, userID를 넘겨주어 roomID에 해당하는 방에 userID에 해당하는 user를 추가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http request parameter에 room id, user id를 넘겨주어 해당 방에서 user를 삭제한다. Admin에 해당하는 user만 다른 user가 속해있는 방에서 user를 뺄 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http request body에 reportUserID, accuseUserID, roomID, reportReason, reportTime, chatlog를 넘겨주어(무슨 정보인지는 DB-reports 참조) 신고를 생성하며, 단말에서 chatlog table에 채팅 내용을 넣어준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,13 +462,53 @@
   </si>
   <si>
     <t xml:space="preserve">url의 query에 id를 입력하여 report table의 id에 해당하는 신고의 채팅을 포함한 세부 내용을 json 형식으로 출력한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-&gt; POST /roomlist/delete)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 userID를 넘김. 기능은 위와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 roomID를 받음. 기능은 위와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request pbody에 roomID, userID를 넘겨줌. 기능은 위와 동일.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url에 query로 room id, user id를 넘겨주어 해당 방에서 user를 삭제한다. Admin에 해당하는 user만 다른 user가 속해있는 방에서 user를 뺄 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-&gt; POST /roomlist/getroom)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-&gt; POST /roomlist/adduser)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-&gt; POST /roomlist/deluser)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url만 변경.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 roomID, userID를 넘겨주어 roomID에 해당하는 방에 userID에 해당하는 user를 추가한다. Req body에 있는 userID와 현재 로그인된 userID가 같아야만 수행된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1084,31 +1115,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="130.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="130.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.69921875" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1156,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1191,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
         <v>93</v>
@@ -1191,7 +1222,7 @@
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -1201,7 +1232,7 @@
       <c r="D4" s="15"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -1228,10 +1259,10 @@
       </c>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>20</v>
@@ -1249,15 +1280,15 @@
       <c r="I6" s="9"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="15"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="D8" s="31" t="s">
@@ -1277,12 +1308,12 @@
       </c>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>20</v>
@@ -1301,18 +1332,18 @@
       </c>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="D10" s="15"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>75</v>
@@ -1342,12 +1373,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>20</v>
@@ -1377,7 +1408,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>59</v>
       </c>
@@ -1387,7 +1418,7 @@
       <c r="D13" s="15"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="15" t="s">
         <v>60</v>
       </c>
@@ -1411,7 +1442,7 @@
       </c>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>91</v>
       </c>
@@ -1435,210 +1466,249 @@
       </c>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B17" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="2"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="B28" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="B29" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="21"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B34" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B35" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B36" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B37" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B38" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B39" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B40" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B41" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B43" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="22" t="s">
+    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B44" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="134">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,10 +413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url에 query로 roomID를 넘겨주며, roomID에 해당하는 방을 roominfos table에서 삭제하고, roomID에 해당하는 방에 들어있는 사람들을 모두 뺀다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http request body에 reportUserID, accuseUserID, roomID, reportReason, reportTime, chatlog를 넘겨주어(무슨 정보인지는 DB-reports 참조) 신고를 생성하며, 단말에서 chatlog table에 채팅 내용을 넣어준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,10 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 신고의 정보를 볼 수 있는 것은 관리자 계정에 한정한다. 예제로는 아이디는 poapper, 비밀번호는 poapper를 admin로 설정했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url에 query로 depart_place, arrive_place, depart_time, arrive_time을 넘겨 이에 해당하는 채팅방 목록을 json형식으로 출력한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,6 +494,70 @@
   </si>
   <si>
     <t>http request body에 roomID, userID를 넘겨주어 roomID에 해당하는 방에 userID에 해당하는 user를 추가한다. Req body에 있는 userID와 현재 로그인된 userID가 같아야만 수행된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomID, sendTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key(식별자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendUserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸사람 user 식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 보낸 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url에 query로 roomID를 넘겨주며, roomID에 해당하는 방을 roominfos table에서 삭제하고, roomID에 해당하는 방에 들어있는 사람들을 모두 뺀다. + messages table에서 해당하는 메시지 모두 삭제.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방이 삭제될 때 roomID에 해당되는 메시지 모두 지움.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /chat/getmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 userID와 datetime(string, yyyy-dd-mm hh:mm:ss 형식)를 넘기면 userID가 속해 있고 인자로 받은 datetime보다 더 큰 채팅 내용들을 모두 돌려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 만들 때, 만든 시간부터 3개월이 지나면 해당 방에 대한 정보(roominfos, users_and_rooms_infos, messages)를 모두 삭제한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,8 +590,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +624,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -734,12 +803,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,8 +908,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1116,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1129,7 +1208,7 @@
     <col min="3" max="3" width="20.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.09765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.69921875" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.59765625" style="1" customWidth="1"/>
@@ -1262,7 +1341,7 @@
     <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>20</v>
@@ -1283,7 +1362,7 @@
     <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="15"/>
       <c r="L7" s="16"/>
@@ -1313,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>20</v>
@@ -1343,7 +1422,7 @@
         <v>57</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>75</v>
@@ -1378,7 +1457,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>20</v>
@@ -1416,6 +1495,9 @@
         <v>96</v>
       </c>
       <c r="D13" s="15"/>
+      <c r="G13" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -1447,7 +1529,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>20</v>
@@ -1468,10 +1550,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="D16" s="18"/>
       <c r="L16" s="16"/>
@@ -1481,7 +1563,7 @@
         <v>92</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="2" t="s">
@@ -1491,10 +1573,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="2"/>
@@ -1505,7 +1587,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="27" t="s">
@@ -1519,12 +1601,12 @@
       <c r="K19" s="28"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1533,182 +1615,225 @@
         <v>90</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>98</v>
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="G25" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="15" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B29" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="11" t="s">
+    <row r="31" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="21"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="13" t="s">
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B44" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="22" t="s">
+    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B45" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41473B7-9C3C-4234-86E4-69D4B0630DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url만 변경.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http request body에 roomID, userID를 넘겨주어 roomID에 해당하는 방에 userID에 해당하는 user를 추가한다. Req body에 있는 userID와 현재 로그인된 userID가 같아야만 수행된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,19 +550,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http request body에 userID와 datetime(string, yyyy-dd-mm hh:mm:ss 형식)를 넘기면 userID가 속해 있고 인자로 받은 datetime보다 더 큰 채팅 내용들을 모두 돌려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방을 만들 때, 만든 시간부터 3개월이 지나면 해당 방에 대한 정보(roominfos, users_and_rooms_infos, messages)를 모두 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url만 변경. + http request body에 roomID를 넘기면 session에 있는 userID를 roomID헤 해당하는 user를 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 datetime(string, yyyy-dd-mm hh:mm:ss 형식)를 넘기면 userID가 속해 있고 인자로 받은 datetime보다 더 큰 채팅 내용들을 모두 돌려준다.(userID는 session에 담겨있음)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,16 +591,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,11 +617,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -803,15 +791,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,15 +893,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="보통" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1194,31 +1172,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="130.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="130.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1213,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
         <v>93</v>
@@ -1301,7 +1279,7 @@
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -1311,7 +1289,7 @@
       <c r="D4" s="15"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1316,7 @@
       </c>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
         <v>98</v>
@@ -1359,7 +1337,7 @@
       <c r="I6" s="9"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
         <v>100</v>
@@ -1367,7 +1345,7 @@
       <c r="D7" s="15"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="D8" s="31" t="s">
@@ -1387,7 +1365,7 @@
       </c>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
@@ -1411,13 +1389,13 @@
       </c>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="D10" s="15"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>57</v>
       </c>
@@ -1452,7 +1430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>58</v>
       </c>
@@ -1487,7 +1465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>59</v>
       </c>
@@ -1496,11 +1474,11 @@
       </c>
       <c r="D13" s="15"/>
       <c r="G13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>60</v>
       </c>
@@ -1524,12 +1502,12 @@
       </c>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>20</v>
@@ -1548,7 +1526,7 @@
       </c>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>108</v>
       </c>
@@ -1558,7 +1536,7 @@
       <c r="D16" s="18"/>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>92</v>
       </c>
@@ -1571,7 +1549,7 @@
       </c>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>113</v>
       </c>
@@ -1582,12 +1560,12 @@
       <c r="E18" s="2"/>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="27" t="s">
@@ -1601,16 +1579,16 @@
       <c r="K19" s="28"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>90</v>
       </c>
@@ -1618,22 +1596,22 @@
         <v>112</v>
       </c>
       <c r="D21" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="F21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>115</v>
       </c>
@@ -1641,53 +1619,53 @@
         <v>111</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33" t="s">
-        <v>133</v>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>131</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="17"/>
       <c r="G25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>63</v>
       </c>
@@ -1697,7 +1675,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>80</v>
       </c>
@@ -1705,7 +1683,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>78</v>
       </c>
@@ -1713,7 +1691,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>89</v>
       </c>
@@ -1721,7 +1699,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>79</v>
       </c>
@@ -1729,15 +1707,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="21"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>6</v>
       </c>
@@ -1753,7 +1731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1769,7 +1747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>9</v>
       </c>
@@ -1777,7 +1755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>11</v>
       </c>
@@ -1793,7 +1771,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +1779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>15</v>
       </c>
@@ -1825,7 +1803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>34</v>
       </c>
@@ -1833,7 +1811,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41473B7-9C3C-4234-86E4-69D4B0630DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="132">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,25 +282,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memberID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberPW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>table 이름</t>
   </si>
   <si>
-    <t>SSO팀 완성까지 쓸 임시 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시 PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* memberID/memberPW 값은 통합 로그인이 완성되기 전까지 임시로 사용한다. 통합 로그인이 완성되면 그때 session id를 받아오든 해야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,10 +453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http request pbody에 roomID, userID를 넘겨줌. 기능은 위와 동일.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url에 query로 room id, user id를 넘겨주어 해당 방에서 user를 삭제한다. Admin에 해당하는 user만 다른 user가 속해있는 방에서 user를 뺄 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,13 +538,25 @@
   </si>
   <si>
     <t>http request body에 datetime(string, yyyy-dd-mm hh:mm:ss 형식)를 넘기면 userID가 속해 있고 인자로 받은 datetime보다 더 큰 채팅 내용들을 모두 돌려준다.(userID는 session에 담겨있음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-&gt; GET /roomlist/getroom)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session에 해당하는 사용자가 속해있는 방의 정보를 json 형식으로 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request pbody에 roomID를 넘겨줌. 기능은 위와 동일.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1172,31 +1163,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="130.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="130.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.69921875" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1204,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>25</v>
@@ -1238,26 +1229,22 @@
       <c r="I2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>23</v>
@@ -1271,15 +1258,11 @@
       <c r="I3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -1289,7 +1272,7 @@
       <c r="D4" s="15"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -1297,7 +1280,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>52</v>
@@ -1316,43 +1299,43 @@
       </c>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" s="15"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="D8" s="31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -1365,18 +1348,18 @@
       </c>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>23</v>
@@ -1389,21 +1372,21 @@
       </c>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="D10" s="15"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>51</v>
@@ -1412,36 +1395,36 @@
         <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>23</v>
@@ -1456,37 +1439,37 @@
         <v>28</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="15"/>
       <c r="G13" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>50</v>
@@ -1502,316 +1485,327 @@
       </c>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" s="18"/>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="2"/>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="2"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="31" t="s">
+      <c r="G22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="2" t="s">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24"/>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="17"/>
-      <c r="G25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>97</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="G26" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="15" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>89</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="21"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B36" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B37" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B38" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B39" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B40" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B41" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B43" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B44" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B45" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22" t="s">
+    <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B46" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7174FE-71F7-449D-9FB0-52E5A5F1B7BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사람 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +282,6 @@
     <t>table 이름</t>
   </si>
   <si>
-    <t>* memberID/memberPW 값은 통합 로그인이 완성되기 전까지 임시로 사용한다. 통합 로그인이 완성되면 그때 session id를 받아오든 해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>users_and_rooms_infos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,13 +543,32 @@
   </si>
   <si>
     <t>http request pbody에 roomID를 넘겨줌. 기능은 위와 동일.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token에 있는 정보</t>
+  </si>
+  <si>
+    <t>token에 있는 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별자(token에 있는 정보)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1163,31 +1175,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="130.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="130.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1216,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1212,358 +1224,364 @@
         <v>17</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="15"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="15"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="D8" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="D10" s="15"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="15"/>
       <c r="G13" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="D16" s="18"/>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="2"/>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="2"/>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -1573,143 +1591,143 @@
       <c r="K20" s="28"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="G22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="17"/>
       <c r="G26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="21"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>5</v>
       </c>
@@ -1717,95 +1735,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7174FE-71F7-449D-9FB0-52E5A5F1B7BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A12C2E4-C615-4545-9EE8-3E66E6945824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A12C2E4-C615-4545-9EE8-3E66E6945824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13416CE4-0585-4D84-B528-3D44748FA0FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/resource/API.xlsx
+++ b/resource/API.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carpool_git\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 포애퍼 카풀\carpool_backend\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13416CE4-0585-4D84-B528-3D44748FA0FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http request body에 '방 정보 변수'에 해당하는 변수들을 넘겨주어 해당 정보를 가지는 room을 roominfos table에 생성한다. '방 정보 변수'는 바로 밑의 표 참조.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http request body에 reportUserID, accuseUserID, roomID, reportReason, reportTime, chatlog를 넘겨주어(무슨 정보인지는 DB-reports 참조) 신고를 생성하며, 단말에서 chatlog table에 채팅 내용을 넣어준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,13 +557,17 @@
   </si>
   <si>
     <t>식별자(token에 있는 정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http request body에 '방 정보 변수'에 해당하는 변수들을 넘겨주어 해당 정보를 가지는 room을 roominfos table에 생성한다. 그리고 roomid를 json형식으로 출력한다. '방 정보 변수'는 바로 밑의 표 참조.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1175,11 +1174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1242,10 +1241,10 @@
         <v>47</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="L2" s="2"/>
     </row>
@@ -1261,10 +1260,10 @@
         <v>63</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>21</v>
@@ -1273,10 +1272,10 @@
         <v>30</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1320,7 +1319,7 @@
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>20</v>
@@ -1341,7 +1340,7 @@
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="15"/>
       <c r="L7" s="16"/>
@@ -1371,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>20</v>
@@ -1401,7 +1400,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>69</v>
@@ -1436,7 +1435,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>20</v>
@@ -1471,11 +1470,11 @@
         <v>58</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="D13" s="15"/>
       <c r="G13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L13" s="16"/>
     </row>
@@ -1508,7 +1507,7 @@
         <v>85</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>20</v>
@@ -1529,10 +1528,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="18"/>
       <c r="L16" s="16"/>
@@ -1542,7 +1541,7 @@
         <v>86</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="2" t="s">
@@ -1552,10 +1551,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="2"/>
@@ -1563,10 +1562,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="2"/>
@@ -1577,7 +1576,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="27" t="s">
@@ -1593,10 +1592,10 @@
     </row>
     <row r="21" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1605,53 +1604,53 @@
         <v>84</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="F22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1661,7 +1660,7 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1672,7 +1671,7 @@
       <c r="A26" s="15"/>
       <c r="B26" s="17"/>
       <c r="G26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1682,7 +1681,7 @@
         <v>62</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1692,7 +1691,7 @@
         <v>74</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1700,7 +1699,7 @@
         <v>72</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1708,7 +1707,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1716,7 +1715,7 @@
         <v>73</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
